--- a/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
+++ b/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AF0C9-6033-49F6-BF64-59B11C20F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718D3ED-BFD8-4150-9351-223AE4930228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Reaction and Paramteres" sheetId="1" r:id="rId1"/>
-    <sheet name="DWSIM_Properties_JSON" sheetId="2" r:id="rId2"/>
-    <sheet name="Additional_Info_Units" sheetId="3" r:id="rId3"/>
+    <sheet name="Substances and Paramteres" sheetId="1" r:id="rId1"/>
+    <sheet name="Properties for JSON-file" sheetId="2" r:id="rId2"/>
+    <sheet name="Additional Info Units" sheetId="3" r:id="rId3"/>
     <sheet name="Reactorspecification" sheetId="4" r:id="rId4"/>
-    <sheet name="Dropdown_Options" sheetId="5" r:id="rId5"/>
+    <sheet name="Dropdown Options" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="130">
   <si>
     <t>Laccase</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Property: Kinetic Parameters</t>
+  </si>
+  <si>
+    <t>(Define Outlet Temperature)</t>
+  </si>
+  <si>
+    <t>(Non-Adibatic Non-Isothermal)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -533,11 +539,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,20 +614,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD175E90-F87B-46BB-AD28-E51C0E56DD62}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +974,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1175,14 +1204,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1242,16 +1271,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1260,13 +1290,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C774B92-7526-499E-9FEC-A031030A7EDB}">
           <x14:formula1>
-            <xm:f>Dropdown_Options!$A$2:$A$3</xm:f>
+            <xm:f>'Dropdown Options'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B9:F9</xm:sqref>
+          <xm:sqref>B9:F9 B19 B20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AC1927A-5EF7-4D67-89A7-047F4769D1D7}">
           <x14:formula1>
-            <xm:f>Dropdown_Options!$B$2:$B$5</xm:f>
+            <xm:f>'Dropdown Options'!$B$2:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>B8:F8</xm:sqref>
         </x14:dataValidation>
@@ -1280,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B300579-BEC2-49D6-9B51-7178606EBCCA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,12 +1339,12 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1769,11 +1799,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1970,7 +2000,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,13 +2145,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E18FDF52-0E15-4CE2-8D17-CA78E00540C8}">
           <x14:formula1>
-            <xm:f>Dropdown_Options!$C$1:$C$4</xm:f>
+            <xm:f>'Dropdown Options'!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0DAB961F-BB3A-4153-BABA-ED12414A6D9B}">
           <x14:formula1>
-            <xm:f>Dropdown_Options!$D$1:$D$2</xm:f>
+            <xm:f>'Dropdown Options'!$D$1:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
@@ -2136,13 +2166,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="E1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2189,6 +2220,12 @@
       <c r="C3" t="s">
         <v>106</v>
       </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -2196,6 +2233,12 @@
       </c>
       <c r="C4" t="s">
         <v>105</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
+++ b/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718D3ED-BFD8-4150-9351-223AE4930228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC047B-0A7C-4D4C-A875-C89D1F1A7339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Paramteres" sheetId="1" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,10 +1410,10 @@
         <v>56000</v>
       </c>
       <c r="C8" s="5">
+        <v>514.61900000000003</v>
+      </c>
+      <c r="D8" s="5">
         <v>513.61900000000003</v>
-      </c>
-      <c r="D8" s="5">
-        <v>514.61900000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
+++ b/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Dropbox\Thesis_ELnaz\11 Finale Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABC047B-0A7C-4D4C-A875-C89D1F1A7339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3562E-7127-4DC0-9C57-158F19F11173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Substances and Paramteres" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>C18H18N4O6S4</t>
   </si>
   <si>
-    <t>hasStoichiometriCoefficient</t>
-  </si>
-  <si>
     <t>hasDirect_OrderCoefficient</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>(Non-Adibatic Non-Isothermal)</t>
+  </si>
+  <si>
+    <t>hasStoichiometricCoefficient</t>
   </si>
 </sst>
 </file>
@@ -957,25 +957,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD175E90-F87B-46BB-AD28-E51C0E56DD62}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -983,9 +983,9 @@
       <c r="E2" s="27"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1003,9 +1003,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1023,9 +1023,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1043,9 +1043,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1063,9 +1063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1083,27 +1083,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,9 +1123,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3">
         <v>9.6666666666666705E-10</v>
@@ -1143,29 +1143,29 @@
         <v>4.6243132629629627E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3">
         <v>8.3333333333333299E-8</v>
@@ -1183,29 +1183,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="19"/>
@@ -1213,9 +1213,9 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
@@ -1225,12 +1225,12 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -1238,41 +1238,41 @@
       <c r="F16" s="19"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -1310,26 +1310,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B300579-BEC2-49D6-9B51-7178606EBCCA}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="11"/>
+    <col min="1" max="1" width="46.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -1338,17 +1338,17 @@
       <c r="D2" s="9"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>375.15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>-4356</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1466,13 +1466,13 @@
         <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>647.14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>513.61900000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>22064000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>5.595E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>34</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1.14199E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>46</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>47</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>49</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>50</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>51</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>52</v>
       </c>
@@ -1783,31 +1783,31 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1833,12 +1833,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>65</v>
@@ -1847,12 +1847,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>65</v>
@@ -1861,7 +1861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -2003,135 +2003,135 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5">
         <v>101325</v>
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5">
         <v>120</v>
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="B11" s="5">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -2169,81 +2169,81 @@
       <selection activeCell="E1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="19">
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="19">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="19">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="19">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
+++ b/Abbaspour/ELNs/Ergänzendes Laborbuch_Kinetik_2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Abschlussarbeiten_Behr\Abbaspour\ELNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3562E-7127-4DC0-9C57-158F19F11173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288539B-265F-4026-9730-1C28B8CE0D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DC943DD-3D35-4159-B445-048AE8071ED3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Substances and Paramteres" sheetId="1" r:id="rId1"/>
+    <sheet name="Substances and Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Properties for JSON-file" sheetId="2" r:id="rId2"/>
     <sheet name="Additional Info Units" sheetId="3" r:id="rId3"/>
     <sheet name="Reactorspecification" sheetId="4" r:id="rId4"/>
@@ -958,7 +958,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
